--- a/Technology/Software/Meta Platforms.xlsx
+++ b/Technology/Software/Meta Platforms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F8C9D-774B-9C41-AB6B-E4EFBCD56C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5C4FC-C606-5746-B4EE-EE5562B097E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2298,39 +2298,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>224.3</v>
+    <v>253.57</v>
     <v>88.09</v>
-    <v>1.1942999999999999</v>
-    <v>-0.18</v>
-    <v>-8.4480000000000004E-4</v>
-    <v>0.25</v>
-    <v>1.1740000000000001E-3</v>
+    <v>1.1913</v>
+    <v>2.68</v>
+    <v>1.091E-2</v>
+    <v>1</v>
+    <v>4.0270000000000002E-3</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
-    <v>86482</v>
+    <v>77114</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>213.41</v>
+    <v>253.57</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999992731253</v>
+    <v>45068.999929779689</v>
     <v>0</v>
-    <v>209.58</v>
-    <v>546140000000</v>
+    <v>245.12</v>
+    <v>636377610240</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>210.21</v>
-    <v>24.853000000000002</v>
-    <v>213.07</v>
-    <v>212.89</v>
-    <v>213.14</v>
-    <v>2565363000</v>
+    <v>245.41</v>
+    <v>30.502199999999998</v>
+    <v>245.64</v>
+    <v>248.32</v>
+    <v>249.32</v>
+    <v>2562732000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>17717166</v>
-    <v>23496280</v>
+    <v>27738479</v>
+    <v>23683050</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2918,10 +2918,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R96" sqref="R96"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,19 +3089,19 @@
         <v>116609000000</v>
       </c>
       <c r="O3" s="27">
-        <v>122210000000</v>
+        <v>122400000000</v>
       </c>
       <c r="P3" s="27">
-        <v>136000000000</v>
+        <v>136300000000</v>
       </c>
       <c r="Q3" s="27">
-        <v>145000000000</v>
+        <v>151800000000</v>
       </c>
       <c r="R3" s="27">
-        <v>155000000000</v>
+        <v>162900000000</v>
       </c>
       <c r="S3" s="27">
-        <v>165000000000</v>
+        <v>177000000000</v>
       </c>
       <c r="T3" s="19" t="s">
         <v>109</v>
@@ -3171,23 +3171,23 @@
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>4.8032313114768188E-2</v>
+        <v>4.9661689921018048E-2</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11283855658293107</v>
+        <v>0.11356209150326801</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>6.6176470588235281E-2</v>
+        <v>0.11371973587674256</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8965517241379226E-2</v>
+        <v>7.3122529644268797E-2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>6.4516129032258007E-2</v>
+        <v>8.6556169429097496E-2</v>
       </c>
       <c r="T4" s="17">
         <f>(N4+M4+L4)/3</f>
@@ -3871,15 +3871,15 @@
       </c>
       <c r="U16" s="29">
         <f>V101/N3</f>
-        <v>4.683514994554451</v>
+        <v>5.4573627270622334</v>
       </c>
       <c r="V16" s="29">
         <f>V101/N28</f>
-        <v>23.540517241379309</v>
+        <v>27.430069406896553</v>
       </c>
       <c r="W16" s="30">
         <f>V101/N106</f>
-        <v>28.677798781768537</v>
+        <v>33.416173610586014</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4015,6 +4015,9 @@
       </c>
       <c r="N19" s="10">
         <v>37781000000</v>
+      </c>
+      <c r="O19" s="10">
+        <v>26105000000</v>
       </c>
       <c r="T19" s="31">
         <f>N40-N56-N61</f>
@@ -4074,6 +4077,10 @@
         <f t="shared" si="3"/>
         <v>-0.32185166570936241</v>
       </c>
+      <c r="O20" s="15">
+        <f>O19/N19-1</f>
+        <v>-0.3090442285805034</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
     </row>
@@ -7503,7 +7510,7 @@
       </c>
       <c r="V95" s="57" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.1942999999999999</v>
+        <v>1.1913</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7604,7 +7611,7 @@
       </c>
       <c r="V97" s="54">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.2364615000000011E-2</v>
+        <v>9.2235465000000016E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7754,7 +7761,7 @@
       </c>
       <c r="V100" s="52">
         <f>V99/V103</f>
-        <v>4.6428428005468536E-2</v>
+        <v>4.0108987950988877E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7805,7 +7812,7 @@
       </c>
       <c r="V101" s="43" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>546140000000</v>
+        <v>636377610240</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7856,7 +7863,7 @@
       </c>
       <c r="V102" s="52">
         <f>V101/V103</f>
-        <v>0.95357157199453146</v>
+        <v>0.95989101204901117</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7907,7 +7914,7 @@
       </c>
       <c r="V103" s="56">
         <f>V99+V101</f>
-        <v>572731000000</v>
+        <v>662968610240</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8022,7 +8029,7 @@
       </c>
       <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>8.8464213719696844E-2</v>
+        <v>8.8871133018713799E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8070,23 +8077,23 @@
       </c>
       <c r="O106" s="32">
         <f>N106*(1+$V$106)</f>
-        <v>20417182804.008099</v>
+        <v>20707006697.726795</v>
       </c>
       <c r="P106" s="32">
         <f t="shared" ref="P106:S106" si="9">O106*(1+$V$106)</f>
-        <v>21889380048.954208</v>
+        <v>22515234529.494976</v>
       </c>
       <c r="Q106" s="32">
         <f t="shared" si="9"/>
-        <v>23467731250.047562</v>
+        <v>24481364849.986458</v>
       </c>
       <c r="R106" s="32">
         <f t="shared" si="9"/>
-        <v>25159890722.933971</v>
+        <v>26619186406.120716</v>
       </c>
       <c r="S106" s="32">
         <f t="shared" si="9"/>
-        <v>26974064703.791763</v>
+        <v>28943692039.465435</v>
       </c>
       <c r="T106" s="33" t="s">
         <v>146</v>
@@ -8096,7 +8103,7 @@
       </c>
       <c r="V106" s="35">
         <f>(SUM(O4:S4)/5)</f>
-        <v>7.2105797311914355E-2</v>
+        <v>8.7324443274878982E-2</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8120,7 +8127,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="36">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>435653649527.61639</v>
+        <v>464486583191.81152</v>
       </c>
       <c r="T107" s="37" t="s">
         <v>148</v>
@@ -8135,23 +8142,23 @@
     <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="O108" s="36">
         <f t="shared" ref="O108:Q108" si="10">O107+O106</f>
-        <v>20417182804.008099</v>
+        <v>20707006697.726795</v>
       </c>
       <c r="P108" s="36">
         <f t="shared" si="10"/>
-        <v>21889380048.954208</v>
+        <v>22515234529.494976</v>
       </c>
       <c r="Q108" s="36">
         <f t="shared" si="10"/>
-        <v>23467731250.047562</v>
+        <v>24481364849.986458</v>
       </c>
       <c r="R108" s="36">
         <f>R107+R106</f>
-        <v>25159890722.933971</v>
+        <v>26619186406.120716</v>
       </c>
       <c r="S108" s="36">
         <f>S107+S106</f>
-        <v>462627714231.40814</v>
+        <v>493430275231.27698</v>
       </c>
       <c r="T108" s="37" t="s">
         <v>144</v>
@@ -8161,7 +8168,7 @@
       </c>
       <c r="V108" s="41">
         <f>V105</f>
-        <v>8.8464213719696844E-2</v>
+        <v>8.8871133018713799E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8176,7 +8183,7 @@
       </c>
       <c r="P110" s="43">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>376160075291.91412</v>
+        <v>398267523548.28314</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8203,7 +8210,7 @@
       </c>
       <c r="P113" s="43">
         <f>P110+P111-P112</f>
-        <v>390307075291.91412</v>
+        <v>412414523548.28314</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8221,7 +8228,7 @@
       </c>
       <c r="P115" s="59">
         <f>P113/P114</f>
-        <v>158.3945531027467</v>
+        <v>167.36620544645763</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8230,7 +8237,7 @@
       </c>
       <c r="P116" s="58" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
-        <v>212.89</v>
+        <v>248.32</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8239,7 +8246,7 @@
       </c>
       <c r="P117" s="47">
         <f>P115/P116-1</f>
-        <v>-0.25597936444761749</v>
+        <v>-0.32600593811832457</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Meta Platforms.xlsx
+++ b/Technology/Software/Meta Platforms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5C4FC-C606-5746-B4EE-EE5562B097E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060B799-B249-BA4C-93DE-3092A7FF3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2298,13 +2298,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>253.57</v>
+    <v>262.3107</v>
     <v>88.09</v>
-    <v>1.1913</v>
-    <v>2.68</v>
-    <v>1.091E-2</v>
-    <v>1</v>
-    <v>4.0270000000000002E-3</v>
+    <v>1.1873</v>
+    <v>9.35</v>
+    <v>3.7002E-2</v>
+    <v>1.46</v>
+    <v>5.5720000000000006E-3</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>77114</v>
@@ -2312,25 +2312,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>253.57</v>
+    <v>262.3107</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45068.999929779689</v>
+    <v>45072.999969988283</v>
     <v>0</v>
-    <v>245.12</v>
-    <v>636377610240</v>
+    <v>252.71</v>
+    <v>671538293280</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>245.41</v>
-    <v>30.502199999999998</v>
-    <v>245.64</v>
-    <v>248.32</v>
-    <v>249.32</v>
+    <v>252.93</v>
+    <v>31.377600000000001</v>
+    <v>252.69</v>
+    <v>262.04000000000002</v>
+    <v>263.5</v>
     <v>2562732000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>27738479</v>
-    <v>23683050</v>
+    <v>25768663</v>
+    <v>24700889</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2921,7 +2921,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomRight" activeCell="Q95" sqref="Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3871,15 +3871,15 @@
       </c>
       <c r="U16" s="29">
         <f>V101/N3</f>
-        <v>5.4573627270622334</v>
+        <v>5.7588890504163484</v>
       </c>
       <c r="V16" s="29">
         <f>V101/N28</f>
-        <v>27.430069406896553</v>
+        <v>28.945616089655172</v>
       </c>
       <c r="W16" s="30">
         <f>V101/N106</f>
-        <v>33.416173610586014</v>
+        <v>35.262460264650286</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="V95" s="57" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.1913</v>
+        <v>1.1873</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="V97" s="54">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.2235465000000016E-2</v>
+        <v>9.2063265000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="V100" s="52">
         <f>V99/V103</f>
-        <v>4.0108987950988877E-2</v>
+        <v>3.8088933176071586E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="V101" s="43" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>636377610240</v>
+        <v>671538293280</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="V102" s="52">
         <f>V101/V103</f>
-        <v>0.95989101204901117</v>
+        <v>0.96191106682392846</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="V103" s="56">
         <f>V99+V101</f>
-        <v>662968610240</v>
+        <v>698129293280</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>8.8871133018713799E-2</v>
+        <v>8.8874933627509409E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8127,7 +8127,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="36">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>464486583191.81152</v>
+        <v>464458945874.74109</v>
       </c>
       <c r="T107" s="37" t="s">
         <v>148</v>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="S108" s="36">
         <f>S107+S106</f>
-        <v>493430275231.27698</v>
+        <v>493402637914.20654</v>
       </c>
       <c r="T108" s="37" t="s">
         <v>144</v>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="V108" s="41">
         <f>V105</f>
-        <v>8.8871133018713799E-2</v>
+        <v>8.8874933627509409E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="P110" s="43">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>398267523548.28314</v>
+        <v>398243180502.22516</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="P113" s="43">
         <f>P110+P111-P112</f>
-        <v>412414523548.28314</v>
+        <v>412390180502.22516</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="P115" s="59">
         <f>P113/P114</f>
-        <v>167.36620544645763</v>
+        <v>167.3563265430362</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8237,7 +8237,7 @@
       </c>
       <c r="P116" s="58" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
-        <v>248.32</v>
+        <v>262.04000000000002</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="P117" s="47">
         <f>P115/P116-1</f>
-        <v>-0.32600593811832457</v>
+        <v>-0.36133290130118989</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Meta Platforms.xlsx
+++ b/Technology/Software/Meta Platforms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E060B799-B249-BA4C-93DE-3092A7FF3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E97E58E-70E3-8944-865B-954885D001DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2298,13 +2298,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>262.3107</v>
+    <v>287.85000000000002</v>
     <v>88.09</v>
-    <v>1.1873</v>
-    <v>9.35</v>
-    <v>3.7002E-2</v>
-    <v>1.46</v>
-    <v>5.5720000000000006E-3</v>
+    <v>1.1918</v>
+    <v>3.24</v>
+    <v>1.1504E-2</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>77114</v>
@@ -2312,25 +2310,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>262.3107</v>
+    <v>285.26</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.999969988283</v>
+    <v>45099.999943402341</v>
     <v>0</v>
-    <v>252.71</v>
-    <v>671538293280</v>
+    <v>277.79000000000002</v>
+    <v>730071092160</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>252.93</v>
-    <v>31.377600000000001</v>
-    <v>252.69</v>
-    <v>262.04000000000002</v>
-    <v>263.5</v>
+    <v>279.08</v>
+    <v>35.3748</v>
+    <v>281.64</v>
+    <v>284.88</v>
     <v>2562732000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>25768663</v>
-    <v>24700889</v>
+    <v>52659</v>
+    <v>22201834</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2362,8 +2359,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2384,7 +2379,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2401,7 +2395,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2412,16 +2406,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2487,19 +2478,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2544,9 +2529,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2554,9 +2536,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2921,7 +2900,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q95" sqref="Q95"/>
+      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3871,15 +3850,15 @@
       </c>
       <c r="U16" s="29">
         <f>V101/N3</f>
-        <v>5.7588890504163484</v>
+        <v>6.2608468656793219</v>
       </c>
       <c r="V16" s="29">
         <f>V101/N28</f>
-        <v>28.945616089655172</v>
+        <v>31.468581558620691</v>
       </c>
       <c r="W16" s="30">
         <f>V101/N106</f>
-        <v>35.262460264650286</v>
+        <v>38.336016181474477</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7510,7 +7489,7 @@
       </c>
       <c r="V95" s="57" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.1873</v>
+        <v>1.1918</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7611,7 +7590,7 @@
       </c>
       <c r="V97" s="54">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.2063265000000005E-2</v>
+        <v>9.2256990000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7761,7 +7740,7 @@
       </c>
       <c r="V100" s="52">
         <f>V99/V103</f>
-        <v>3.8088933176071586E-2</v>
+        <v>3.5142503206539916E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7812,7 +7791,7 @@
       </c>
       <c r="V101" s="43" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>671538293280</v>
+        <v>730071092160</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7863,7 +7842,7 @@
       </c>
       <c r="V102" s="52">
         <f>V101/V103</f>
-        <v>0.96191106682392846</v>
+        <v>0.96485749679346011</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7914,7 +7893,7 @@
       </c>
       <c r="V103" s="56">
         <f>V99+V101</f>
-        <v>698129293280</v>
+        <v>756662092160</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8029,7 +8008,7 @@
       </c>
       <c r="V105" s="25">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>8.8874933627509409E-2</v>
+        <v>8.9308489087359402E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8127,7 +8106,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="36">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>464458945874.74109</v>
+        <v>461327653028.05927</v>
       </c>
       <c r="T107" s="37" t="s">
         <v>148</v>
@@ -8158,7 +8137,7 @@
       </c>
       <c r="S108" s="36">
         <f>S107+S106</f>
-        <v>493402637914.20654</v>
+        <v>490271345067.52472</v>
       </c>
       <c r="T108" s="37" t="s">
         <v>144</v>
@@ -8168,7 +8147,7 @@
       </c>
       <c r="V108" s="41">
         <f>V105</f>
-        <v>8.8874933627509409E-2</v>
+        <v>8.9308489087359402E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8183,7 +8162,7 @@
       </c>
       <c r="P110" s="43">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>398243180502.22516</v>
+        <v>395485185472.89679</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8210,7 +8189,7 @@
       </c>
       <c r="P113" s="43">
         <f>P110+P111-P112</f>
-        <v>412390180502.22516</v>
+        <v>409632185472.89679</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8228,7 +8207,7 @@
       </c>
       <c r="P115" s="59">
         <f>P113/P114</f>
-        <v>167.3563265430362</v>
+        <v>166.23707604058671</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8237,7 +8216,7 @@
       </c>
       <c r="P116" s="58" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
-        <v>262.04000000000002</v>
+        <v>284.88</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
@@ -8246,7 +8225,7 @@
       </c>
       <c r="P117" s="47">
         <f>P115/P116-1</f>
-        <v>-0.36133290130118989</v>
+        <v>-0.41646631549920421</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Meta Platforms.xlsx
+++ b/Technology/Software/Meta Platforms.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E97E58E-70E3-8944-865B-954885D001DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C91A7-170C-8A46-9CB3-99E2E47F3363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,19 +920,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,78 +930,85 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>META</a:t>
+              <a:t>Meta Platforms</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1119,9 +1098,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.7607973421926911E-2"/>
-          <c:y val="0.12503497620818957"/>
+          <c:y val="0.16781558021654799"/>
           <c:w val="0.84524916943521589"/>
-          <c:h val="0.71247869222434701"/>
+          <c:h val="0.64117741345532764"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1335,11 +1314,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1379,7 +1358,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$N$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$N$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2149,8 +2128,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2176,6 +2155,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2298,11 +2331,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>287.85000000000002</v>
+    <v>298.13</v>
     <v>88.09</v>
-    <v>1.1918</v>
-    <v>3.24</v>
-    <v>1.1504E-2</v>
+    <v>1.2107000000000001</v>
+    <v>3.57</v>
+    <v>1.2287999999999999E-2</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
     <v>77114</v>
@@ -2310,24 +2343,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>285.26</v>
+    <v>298.13</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999943402341</v>
+    <v>45117.999988495314</v>
     <v>0</v>
-    <v>277.79000000000002</v>
-    <v>730071092160</v>
+    <v>287.05</v>
+    <v>753699481200</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>279.08</v>
-    <v>35.3748</v>
-    <v>281.64</v>
-    <v>284.88</v>
+    <v>295.55</v>
+    <v>36.519599999999997</v>
+    <v>290.52999999999997</v>
+    <v>294.10000000000002</v>
     <v>2562732000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>52659</v>
-    <v>22201834</v>
+    <v>50998</v>
+    <v>23879765</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2897,10 +2930,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O100" sqref="O100"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2953,19 +2986,19 @@
       <c r="N1" s="8">
         <v>2022</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1" s="24">
         <v>2023</v>
       </c>
-      <c r="P1" s="26">
+      <c r="P1" s="24">
         <v>2024</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1" s="24">
         <v>2025</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1" s="24">
         <v>2026</v>
       </c>
-      <c r="S1" s="26">
+      <c r="S1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2974,52 +3007,52 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
@@ -3067,106 +3100,106 @@
       <c r="N3" s="1">
         <v>116609000000</v>
       </c>
-      <c r="O3" s="27">
-        <v>122400000000</v>
-      </c>
-      <c r="P3" s="27">
-        <v>136300000000</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>151800000000</v>
-      </c>
-      <c r="R3" s="27">
-        <v>162900000000</v>
-      </c>
-      <c r="S3" s="27">
-        <v>177000000000</v>
+      <c r="O3" s="25">
+        <v>132900000000</v>
+      </c>
+      <c r="P3" s="25">
+        <v>148800000000</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>163000000000</v>
+      </c>
+      <c r="R3" s="25">
+        <v>174400000000</v>
+      </c>
+      <c r="S3" s="25">
+        <v>196400000000</v>
       </c>
       <c r="T3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="W3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="68">
         <f>(C3/B3)-1</f>
         <v>0.87993920972644379</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="68">
         <f>(D3/C3)-1</f>
         <v>0.37132848288870934</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="68">
         <f>(E3/D3)-1</f>
         <v>0.5468657889565729</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="68">
         <f t="shared" ref="F4:S4" si="0">(F3/E3)-1</f>
         <v>0.58358739837398366</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="68">
         <f t="shared" si="0"/>
         <v>0.43815177282207607</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="68">
         <f t="shared" si="0"/>
         <v>0.54161088799643009</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="68">
         <f t="shared" si="0"/>
         <v>0.47090961719371882</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="68">
         <f t="shared" si="0"/>
         <v>0.37352716896661997</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="68">
         <f t="shared" si="0"/>
         <v>0.26610910132884413</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="68">
         <f t="shared" si="0"/>
         <v>0.21596390228722573</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="68">
         <f t="shared" si="0"/>
         <v>0.37182574303495608</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="68">
         <f t="shared" si="0"/>
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>4.9661689921018048E-2</v>
+        <v>0.13970619763483083</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11356209150326801</v>
+        <v>0.11963882618510158</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11371973587674256</v>
+        <v>9.5430107526881747E-2</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>7.3122529644268797E-2</v>
+        <v>6.9938650306748507E-2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>8.6556169429097496E-2</v>
+        <v>0.12614678899082565</v>
       </c>
       <c r="T4" s="17">
         <f>(N4+M4+L4)/3</f>
@@ -3181,7 +3214,7 @@
         <v>0.17226825791159819</v>
       </c>
       <c r="W4" s="17">
-        <f>(N105+M105+L105)/3</f>
+        <f>(N106+M106+L106)/3</f>
         <v>8.5386411148601501E-2</v>
       </c>
       <c r="AA4" s="16"/>
@@ -3283,16 +3316,16 @@
         <v>91360000000</v>
       </c>
       <c r="T6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="W6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3351,7 +3384,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="W7" s="21">
-        <f>N106/N3</f>
+        <f>N107/N3</f>
         <v>0.16331500999065252</v>
       </c>
     </row>
@@ -3401,7 +3434,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3456,16 +3489,16 @@
         <v>0.30304693462768739</v>
       </c>
       <c r="T9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="V9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="W9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3616,21 +3649,21 @@
         <v>27078000000</v>
       </c>
       <c r="T12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="V12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="W12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3706,43 +3739,43 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3789,16 +3822,16 @@
         <v>62416000000</v>
       </c>
       <c r="T15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="W15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3844,21 +3877,21 @@
       <c r="N16" s="1">
         <v>87665000000</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="26">
         <f>(N35+M35+L35+K35+J35)/5</f>
         <v>-1.7605880588774027E-2</v>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="31">
         <f>V101/N3</f>
-        <v>6.2608468656793219</v>
-      </c>
-      <c r="V16" s="29">
+        <v>6.4634760713152497</v>
+      </c>
+      <c r="V16" s="31">
         <f>V101/N28</f>
-        <v>31.468581558620691</v>
-      </c>
-      <c r="W16" s="30">
-        <f>V101/N106</f>
-        <v>38.336016181474477</v>
+        <v>32.487046603448277</v>
+      </c>
+      <c r="W16" s="32">
+        <f>V101/N107</f>
+        <v>39.576742344045371</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3949,7 +3982,16 @@
         <v>8686000000</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="W18" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -3995,17 +4037,41 @@
       <c r="N19" s="10">
         <v>37781000000</v>
       </c>
-      <c r="O19" s="10">
-        <v>26105000000</v>
-      </c>
-      <c r="T19" s="31">
+      <c r="O19" s="35">
+        <v>69960000000</v>
+      </c>
+      <c r="P19" s="35">
+        <v>80536000000</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>91005000000</v>
+      </c>
+      <c r="R19" s="35">
+        <v>102800000000</v>
+      </c>
+      <c r="S19" s="35">
+        <v>120900000000</v>
+      </c>
+      <c r="T19" s="27">
         <f>N40-N56-N61</f>
         <v>14147000000</v>
       </c>
+      <c r="U19" s="31">
+        <f>V101/O3</f>
+        <v>5.6711774356659141</v>
+      </c>
+      <c r="V19" s="31">
+        <f>V101/O28</f>
+        <v>21.578043493944861</v>
+      </c>
+      <c r="W19" s="32">
+        <f>V101/O105</f>
+        <v>-132.40765055766533</v>
+      </c>
     </row>
     <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4021,7 +4087,7 @@
         <v>2.2001675041876045</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:N20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:S20" si="3">(F19/E19)-1</f>
         <v>0.61633080345459312</v>
       </c>
       <c r="G20" s="15">
@@ -4056,14 +4122,28 @@
         <f t="shared" si="3"/>
         <v>-0.32185166570936241</v>
       </c>
-      <c r="O20" s="15">
-        <f>O19/N19-1</f>
-        <v>-0.3090442285805034</v>
-      </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-    </row>
-    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="O20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.85172441174135138</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15117209834190959</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.12999155657097439</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.12960826328223729</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17607003891050588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4105,6 +4185,32 @@
       </c>
       <c r="N21" s="2">
         <v>0.32400000000000001</v>
+      </c>
+      <c r="O21" s="36">
+        <f>O19/O3</f>
+        <v>0.52641083521444698</v>
+      </c>
+      <c r="P21" s="36">
+        <f t="shared" ref="P21:S21" si="4">P19/P3</f>
+        <v>0.54123655913978497</v>
+      </c>
+      <c r="Q21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.55831288343558283</v>
+      </c>
+      <c r="R21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.58944954128440363</v>
+      </c>
+      <c r="S21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.61558044806517309</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4150,6 +4256,14 @@
       <c r="N22" s="10">
         <v>28944000000</v>
       </c>
+      <c r="V22" s="33">
+        <f>N98/V101</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="34">
+        <f>N107/V101</f>
+        <v>2.5267365143570433E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4414,10 +4528,25 @@
       <c r="N28" s="11">
         <v>23200000000</v>
       </c>
+      <c r="O28" s="37">
+        <v>34929000000</v>
+      </c>
+      <c r="P28" s="37">
+        <v>42234000000</v>
+      </c>
+      <c r="Q28" s="37">
+        <v>46424000000</v>
+      </c>
+      <c r="R28" s="37">
+        <v>54114000000</v>
+      </c>
+      <c r="S28" s="37">
+        <v>61870000000</v>
+      </c>
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4433,40 +4562,60 @@
         <v>27.30188679245283</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:N29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:S29" si="5">(F28/E28)-1</f>
         <v>0.96</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25442176870748301</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7703362255965294</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55955760007830091</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38772436299736412</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16402858176555712</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57673789559101984</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35078569958141759</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41071882143764282</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.50556034482758627</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20913853817744577</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>9.9209167968935086E-2</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16564707909701881</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14332705030121584</v>
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -4514,6 +4663,26 @@
       <c r="N30" s="2">
         <v>0.19900000000000001</v>
       </c>
+      <c r="O30" s="38">
+        <f>O28/O3</f>
+        <v>0.26282167042889393</v>
+      </c>
+      <c r="P30" s="38">
+        <f t="shared" ref="P30:S30" si="6">P28/P3</f>
+        <v>0.28383064516129031</v>
+      </c>
+      <c r="Q30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.28480981595092025</v>
+      </c>
+      <c r="R30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.31028669724770641</v>
+      </c>
+      <c r="S30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.31502036659877802</v>
+      </c>
     </row>
     <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -4558,6 +4727,21 @@
       <c r="N31" s="12">
         <v>8.6300000000000008</v>
       </c>
+      <c r="O31" s="39">
+        <v>13.57</v>
+      </c>
+      <c r="P31" s="39">
+        <v>16.41</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>18.04</v>
+      </c>
+      <c r="R31" s="39">
+        <v>21.03</v>
+      </c>
+      <c r="S31" s="39">
+        <v>24.04</v>
+      </c>
     </row>
     <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -4693,7 +4877,7 @@
     </row>
     <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4701,47 +4885,47 @@
         <v>-1.228293096145701E-2</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:N35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:N35" si="7">(D34-C34)/C34</f>
         <v>-7.1183533447684397E-2</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16204986149584488</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.8402860548271755E-2</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0945945945945943E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5236593059936908E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0598290598290599E-2</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1840324763193504E-2</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5405682985279013E-2</v>
       </c>
       <c r="L35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.172461752433936E-3</v>
       </c>
       <c r="M35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0041551246537396E-2</v>
       </c>
       <c r="N35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.4914305701294158E-2</v>
       </c>
     </row>
@@ -4750,43 +4934,43 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -4794,43 +4978,43 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4882,7 +5066,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1">
         <v>2396000000</v>
@@ -5014,43 +5198,43 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5322,34 +5506,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1">
         <v>6234000000</v>
@@ -5366,43 +5550,43 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5498,43 +5682,43 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5648,10 +5832,10 @@
         <v>208000000</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>500000000</v>
@@ -5674,25 +5858,25 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1">
         <v>230000000</v>
@@ -5754,7 +5938,7 @@
         <v>561000000</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5868,13 +6052,13 @@
         <v>107000000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>9524000000</v>
@@ -5894,43 +6078,43 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5938,16 +6122,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>987000000</v>
@@ -5956,10 +6140,10 @@
         <v>163000000</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>673000000</v>
@@ -5968,13 +6152,13 @@
         <v>1039000000</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6070,43 +6254,43 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6158,43 +6342,43 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6326,7 +6510,7 @@
         <v>55811000000</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6422,43 +6606,43 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="21" x14ac:dyDescent="0.25">
@@ -6466,43 +6650,43 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6683,58 +6867,58 @@
     </row>
     <row r="80" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:N80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:N80" si="8">B79/B3</f>
         <v>1.0131712259371834E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.8474804634869308E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30890155236785222</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11509146341463415</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14326969356650088</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16510486390004461</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11643389536145886</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.1579957198730716E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4357964110462416E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.84045999123018E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6030942825568548E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.7707773321235657E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10283940347657557</v>
       </c>
     </row>
@@ -6831,48 +7015,48 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="V83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="U83" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="V83" s="43"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6917,10 +7101,10 @@
       <c r="N84" s="1">
         <v>210000000</v>
       </c>
-      <c r="U84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="V84" s="65"/>
+      <c r="U84" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="V84" s="44"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6963,12 +7147,12 @@
         <v>187000000</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U85" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="V85" s="50">
+        <v>91</v>
+      </c>
+      <c r="U85" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="V85" s="46">
         <f>N17</f>
         <v>276000000</v>
       </c>
@@ -7016,10 +7200,10 @@
       <c r="N86" s="1">
         <v>4200000000</v>
       </c>
-      <c r="U86" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="V86" s="50">
+      <c r="U86" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="V86" s="46">
         <f>N56</f>
         <v>1367000000</v>
       </c>
@@ -7067,10 +7251,10 @@
       <c r="N87" s="10">
         <v>50475000000</v>
       </c>
-      <c r="U87" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="V87" s="50">
+      <c r="U87" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="V87" s="46">
         <f>N61</f>
         <v>25224000000</v>
       </c>
@@ -7118,74 +7302,74 @@
       <c r="N88" s="1">
         <v>-31431000000</v>
       </c>
-      <c r="U88" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="V88" s="52">
+      <c r="U88" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="V88" s="48">
         <f>V85/(V86+V87)</f>
         <v>1.0379451694182243E-2</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:N89" si="9">(-1*B88)/B3</f>
+        <v>0.14842958459979735</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16329830234438156</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.24268029082334447</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.17301829268292682</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.14687951227338361</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.14072958500669344</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16249366813807078</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.16562123336531129</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.24920305168523227</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.21361585357228738</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.17582737160472287</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15744218979216307</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.26954180209074774</v>
+      </c>
+      <c r="U89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:N89" si="7">(-1*B88)/B3</f>
-        <v>0.14842958459979735</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16329830234438156</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24268029082334447</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17301829268292682</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14687951227338361</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14072958500669344</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16249366813807078</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.16562123336531129</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.24920305168523227</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.21361585357228738</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.17582737160472287</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.15744218979216307</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.26954180209074774</v>
-      </c>
-      <c r="U89" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="V89" s="50">
+      <c r="V89" s="46">
         <f>N27</f>
         <v>5619000000</v>
       </c>
@@ -7233,10 +7417,10 @@
       <c r="N90" s="1">
         <v>-1312000000</v>
       </c>
-      <c r="U90" s="49" t="s">
+      <c r="U90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="50">
+      <c r="V90" s="46">
         <f>N25</f>
         <v>28819000000</v>
       </c>
@@ -7246,7 +7430,7 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>-3028000000</v>
@@ -7284,10 +7468,10 @@
       <c r="N91" s="1">
         <v>-9631000000</v>
       </c>
-      <c r="U91" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="V91" s="52">
+      <c r="U91" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="V91" s="48">
         <f>V89/V90</f>
         <v>0.19497553697213643</v>
       </c>
@@ -7297,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>629000000</v>
@@ -7335,10 +7519,10 @@
       <c r="N92" s="1">
         <v>13158000000</v>
       </c>
-      <c r="U92" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="V92" s="54">
+      <c r="U92" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="V92" s="48">
         <f>V88*(1-V91)</f>
         <v>8.3557125266327092E-3</v>
       </c>
@@ -7386,10 +7570,10 @@
       <c r="N93" s="1">
         <v>246000000</v>
       </c>
-      <c r="U93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="V93" s="65"/>
+      <c r="U93" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="V93" s="44"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7434,11 +7618,12 @@
       <c r="N94" s="10">
         <v>-28970000000</v>
       </c>
-      <c r="U94" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="V94" s="55">
-        <v>4.095E-2</v>
+      <c r="U94" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="V94" s="49">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7467,10 +7652,10 @@
         <v>-312000000</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1">
         <v>-552000000</v>
@@ -7484,12 +7669,12 @@
       <c r="N95" s="1">
         <v>-850000000</v>
       </c>
-      <c r="U95" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="V95" s="57" cm="1">
+      <c r="U95" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="V95" s="50" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.1918</v>
+        <v>1.2107000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7509,36 +7694,36 @@
         <v>1478000000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U96" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="V96" s="55">
+        <v>91</v>
+      </c>
+      <c r="U96" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="V96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7547,25 +7732,25 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-1976000000</v>
@@ -7585,12 +7770,12 @@
       <c r="N97" s="1">
         <v>-27956000000</v>
       </c>
-      <c r="U97" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="V97" s="54">
+      <c r="U97" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="V97" s="48">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.2256990000000011E-2</v>
+        <v>9.3456216000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7598,48 +7783,48 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="V98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="U98" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="V98" s="44"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7684,10 +7869,10 @@
       <c r="N99" s="1">
         <v>6670000000</v>
       </c>
-      <c r="U99" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="V99" s="50">
+      <c r="U99" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="V99" s="46">
         <f>V86+V87</f>
         <v>26591000000</v>
       </c>
@@ -7735,12 +7920,12 @@
       <c r="N100" s="10">
         <v>-22136000000</v>
       </c>
-      <c r="U100" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="V100" s="52">
+      <c r="U100" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="V100" s="48">
         <f>V99/V103</f>
-        <v>3.5142503206539916E-2</v>
+        <v>3.4078334467320427E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7786,12 +7971,12 @@
       <c r="N101" s="1">
         <v>-638000000</v>
       </c>
-      <c r="U101" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="V101" s="43" cm="1">
+      <c r="U101" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="V101" s="51" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>730071092160</v>
+        <v>753699481200</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7837,12 +8022,12 @@
       <c r="N102" s="10">
         <v>-1269000000</v>
       </c>
-      <c r="U102" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="V102" s="52">
+      <c r="U102" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="V102" s="48">
         <f>V101/V103</f>
-        <v>0.96485749679346011</v>
+        <v>0.96592166553267955</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7888,12 +8073,12 @@
       <c r="N103" s="1">
         <v>16865000000</v>
       </c>
-      <c r="U103" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="V103" s="56">
+      <c r="U103" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="V103" s="52">
         <f>V99+V101</f>
-        <v>756662092160</v>
+        <v>780290481200</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7939,302 +8124,355 @@
       <c r="N104" s="11">
         <v>15596000000</v>
       </c>
-      <c r="U104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="V104" s="65"/>
+      <c r="U104" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="V104" s="44"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:M105" si="10">(B22*(1-$V$91))+B77+B88-B81</f>
+        <v>769785245.84475517</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>1125622957.0769284</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>338103161.10899067</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>1230288594.3301296</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>3694292168.3611507</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>3649277282.3484507</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>7097039002.0472603</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>10668909226.551926</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>11982574447.413166</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>2698316770.1863365</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>20770954231.583332</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>26337308719.941704</v>
+      </c>
+      <c r="N105" s="1">
+        <f>(N22*(1-$V$91))+N77+N88-N81</f>
+        <v>-5127371942.1215172</v>
+      </c>
+      <c r="O105" s="28">
+        <f>N105*(1+$V$106)</f>
+        <v>-5692265348.9101343</v>
+      </c>
+      <c r="P105" s="28">
+        <f t="shared" ref="P105:S105" si="11">O105*(1+$V$106)</f>
+        <v>-6319394256.5821171</v>
+      </c>
+      <c r="Q105" s="28">
+        <f t="shared" si="11"/>
+        <v>-7015615281.8436556</v>
+      </c>
+      <c r="R105" s="28">
+        <f t="shared" si="11"/>
+        <v>-7788540449.3592329</v>
+      </c>
+      <c r="S105" s="28">
+        <f t="shared" si="11"/>
+        <v>-8646620416.6434174</v>
+      </c>
+      <c r="T105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="U105" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="V105" s="54">
+        <f>(V100*V92)+(V102*V97)</f>
+        <v>9.0556132579297233E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>1.3283950617283953</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>-0.60021208907741253</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>6.5862068965517242</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>0.26783216783216779</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
         <v>0.67567567567567566</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:N105" si="8">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
         <v>0.91194865042791307</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
         <v>0.50494964276491339</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
         <v>-0.12148944689126584</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
         <v>0.38107949736310953</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
         <v>0.11408636620780688</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
         <v>0.65521327014218</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
         <v>-0.51314040290418239</v>
       </c>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="V105" s="25">
-        <f>(V100*V92)+(V102*V97)</f>
-        <v>8.9308489087359402E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="O106" s="41">
+        <v>34353000000</v>
+      </c>
+      <c r="P106" s="41">
+        <v>39261000000</v>
+      </c>
+      <c r="Q106" s="41">
+        <v>46995000000</v>
+      </c>
+      <c r="R106" s="41">
+        <v>58422000000</v>
+      </c>
+      <c r="S106" s="41">
+        <v>74078000000</v>
+      </c>
+      <c r="T106" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="U106" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V106" s="56">
+        <f>(SUM(O4:S4)/5)</f>
+        <v>0.11017211412887766</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>405000000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>943000000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>377000000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>2860000000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>3626000000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>6076000000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>11617000000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>17483000000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>15359000000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>21212000000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>23632000000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>39116000000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>19044000000</v>
       </c>
-      <c r="O106" s="32">
-        <f>N106*(1+$V$106)</f>
-        <v>20707006697.726795</v>
-      </c>
-      <c r="P106" s="32">
-        <f t="shared" ref="P106:S106" si="9">O106*(1+$V$106)</f>
-        <v>22515234529.494976</v>
-      </c>
-      <c r="Q106" s="32">
-        <f t="shared" si="9"/>
-        <v>24481364849.986458</v>
-      </c>
-      <c r="R106" s="32">
-        <f t="shared" si="9"/>
-        <v>26619186406.120716</v>
-      </c>
-      <c r="S106" s="32">
-        <f t="shared" si="9"/>
-        <v>28943692039.465435</v>
-      </c>
-      <c r="T106" s="33" t="s">
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="67">
+        <f>S106*(1+V107)/(V108-V107)</f>
+        <v>1158243279652.8152</v>
+      </c>
+      <c r="T107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="U107" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="U106" s="34" t="s">
+      <c r="V107" s="58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="O108" s="67">
+        <f t="shared" ref="O108:Q108" si="12">O107+O106</f>
+        <v>34353000000</v>
+      </c>
+      <c r="P108" s="67">
+        <f t="shared" si="12"/>
+        <v>39261000000</v>
+      </c>
+      <c r="Q108" s="67">
+        <f t="shared" si="12"/>
+        <v>46995000000</v>
+      </c>
+      <c r="R108" s="67">
+        <f>R107+R106</f>
+        <v>58422000000</v>
+      </c>
+      <c r="S108" s="67">
+        <f>S107+S106</f>
+        <v>1232321279652.8152</v>
+      </c>
+      <c r="T108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="U108" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="V106" s="35">
-        <f>(SUM(O4:S4)/5)</f>
-        <v>8.7324443274878982E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="33"/>
-      <c r="P107" s="33"/>
-      <c r="Q107" s="33"/>
-      <c r="R107" s="33"/>
-      <c r="S107" s="36">
-        <f>S106*(1+V107)/(V108-V107)</f>
-        <v>461327653028.05927</v>
-      </c>
-      <c r="T107" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="U107" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="V107" s="39">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="36">
-        <f t="shared" ref="O108:Q108" si="10">O107+O106</f>
-        <v>20707006697.726795</v>
-      </c>
-      <c r="P108" s="36">
-        <f t="shared" si="10"/>
-        <v>22515234529.494976</v>
-      </c>
-      <c r="Q108" s="36">
-        <f t="shared" si="10"/>
-        <v>24481364849.986458</v>
-      </c>
-      <c r="R108" s="36">
-        <f>R107+R106</f>
-        <v>26619186406.120716</v>
-      </c>
-      <c r="S108" s="36">
-        <f>S107+S106</f>
-        <v>490271345067.52472</v>
-      </c>
-      <c r="T108" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="U108" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="V108" s="41">
+      <c r="V108" s="56">
         <f>V105</f>
-        <v>8.9308489087359402E-2</v>
+        <v>9.0556132579297233E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="O109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="P109" s="61"/>
+        <v>148</v>
+      </c>
+      <c r="P109" s="60"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="P110" s="43">
+      <c r="O110" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="P110" s="51">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>395485185472.89679</v>
+        <v>940932669057.3855</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="P111" s="43">
+      <c r="O111" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="P111" s="51">
         <f>N40</f>
         <v>40738000000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="P112" s="43">
+      <c r="O112" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P112" s="51">
         <f>V99</f>
         <v>26591000000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="P113" s="43">
+      <c r="O113" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="P113" s="51">
         <f>P110+P111-P112</f>
-        <v>409632185472.89679</v>
+        <v>955079669057.3855</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="P114" s="44">
+      <c r="O114" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="P114" s="61">
         <f>N34*(1+(5*T16))</f>
         <v>2464144553.2456627</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="45" t="s">
+      <c r="O115" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="P115" s="63">
+        <f>P113/P114</f>
+        <v>387.59076361790409</v>
+      </c>
+    </row>
+    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O116" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="P116" s="64" cm="1">
+        <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
+        <v>294.10000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O117" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="P117" s="65">
+        <f>P115/P116-1</f>
+        <v>0.31788766956104753</v>
+      </c>
+    </row>
+    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="O118" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="P115" s="59">
-        <f>P113/P114</f>
-        <v>166.23707604058671</v>
-      </c>
-    </row>
-    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="P116" s="58" cm="1">
-        <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
-        <v>284.88</v>
-      </c>
-    </row>
-    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="P117" s="47">
-        <f>P115/P116-1</f>
-        <v>-0.41646631549920421</v>
-      </c>
-    </row>
-    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="P118" s="48" t="str">
+      <c r="P118" s="66" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -8274,9 +8512,10 @@
     <hyperlink ref="M74" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1326801/000132680122000018/0001326801-22-000018-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="N36" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1326801/000132680123000013/0001326801-23-000013-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="N74" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1326801/000132680123000013/0001326801-23-000013-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O1" r:id="rId28" display="https://simplywall.st/stocks/us/media/nasdaq-meta/meta-platforms/future" xr:uid="{D683C88F-63A9-3347-80E2-14D75953F3D2}"/>
+    <hyperlink ref="O1" r:id="rId28" display="https://finbox.com/NASDAQGS:META/explorer/revenue_proj" xr:uid="{D683C88F-63A9-3347-80E2-14D75953F3D2}"/>
+    <hyperlink ref="T106" r:id="rId29" xr:uid="{C7CA702B-4098-C840-A363-429DDC938AEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
--- a/Technology/Software/Meta Platforms.xlsx
+++ b/Technology/Software/Meta Platforms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C91A7-170C-8A46-9CB3-99E2E47F3363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6589E09-0423-BC48-AB28-D49C2B5454EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -933,16 +933,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -954,61 +954,61 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2173,20 +2173,19 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0910000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2205,7 +2204,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2331,36 +2329,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>298.13</v>
+    <v>326.2</v>
     <v>88.09</v>
-    <v>1.2107000000000001</v>
-    <v>3.57</v>
-    <v>1.2287999999999999E-2</v>
+    <v>1.2322</v>
+    <v>0.49</v>
+    <v>1.6559999999999999E-3</v>
+    <v>-0.20499999999999999</v>
+    <v>-6.9169999999999995E-4</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
-    <v>77114</v>
+    <v>71469</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>298.13</v>
+    <v>301.74</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999988495314</v>
+    <v>45170.999953182814</v>
     <v>0</v>
-    <v>287.05</v>
-    <v>753699481200</v>
+    <v>294.47000000000003</v>
+    <v>762633600000</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>295.55</v>
-    <v>36.519599999999997</v>
-    <v>290.52999999999997</v>
-    <v>294.10000000000002</v>
-    <v>2562732000</v>
+    <v>299.37</v>
+    <v>34.513399999999997</v>
+    <v>295.89</v>
+    <v>296.38</v>
+    <v>296.17500000000001</v>
+    <v>2573161000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>50998</v>
-    <v>23879765</v>
+    <v>12842257</v>
+    <v>19586107</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2392,6 +2393,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2412,6 +2415,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2428,7 +2432,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2439,13 +2443,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2511,13 +2518,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2562,6 +2575,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2569,6 +2585,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2930,10 +2949,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3133,51 +3152,51 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="68">
+      <c r="C4" s="64">
         <f>(C3/B3)-1</f>
         <v>0.87993920972644379</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="64">
         <f>(D3/C3)-1</f>
         <v>0.37132848288870934</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="64">
         <f>(E3/D3)-1</f>
         <v>0.5468657889565729</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="64">
         <f t="shared" ref="F4:S4" si="0">(F3/E3)-1</f>
         <v>0.58358739837398366</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>0.43815177282207607</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="64">
         <f t="shared" si="0"/>
         <v>0.54161088799643009</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="64">
         <f t="shared" si="0"/>
         <v>0.47090961719371882</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="64">
         <f t="shared" si="0"/>
         <v>0.37352716896661997</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="64">
         <f t="shared" si="0"/>
         <v>0.26610910132884413</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="64">
         <f t="shared" si="0"/>
         <v>0.21596390228722573</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="64">
         <f t="shared" si="0"/>
         <v>0.37182574303495608</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="64">
         <f t="shared" si="0"/>
         <v>-1.1193175554782941E-2</v>
       </c>
@@ -3883,15 +3902,15 @@
       </c>
       <c r="U16" s="31">
         <f>V101/N3</f>
-        <v>6.4634760713152497</v>
+        <v>6.5400921026678898</v>
       </c>
       <c r="V16" s="31">
         <f>V101/N28</f>
-        <v>32.487046603448277</v>
+        <v>32.87213793103448</v>
       </c>
       <c r="W16" s="32">
         <f>V101/N107</f>
-        <v>39.576742344045371</v>
+        <v>40.045872715816003</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -4058,15 +4077,15 @@
       </c>
       <c r="U19" s="31">
         <f>V101/O3</f>
-        <v>5.6711774356659141</v>
+        <v>5.7384018058690742</v>
       </c>
       <c r="V19" s="31">
         <f>V101/O28</f>
-        <v>21.578043493944861</v>
+        <v>21.833822897878555</v>
       </c>
       <c r="W19" s="32">
         <f>V101/O105</f>
-        <v>-132.40765055766533</v>
+        <v>-133.97716958961112</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,7 +4281,7 @@
       </c>
       <c r="W22" s="34">
         <f>N107/V101</f>
-        <v>2.5267365143570433E-2</v>
+        <v>2.4971362394733198E-2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7053,10 +7072,10 @@
       <c r="N83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U83" s="42" t="s">
+      <c r="U83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="V83" s="43"/>
+      <c r="V83" s="67"/>
     </row>
     <row r="84" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7101,10 +7120,10 @@
       <c r="N84" s="1">
         <v>210000000</v>
       </c>
-      <c r="U84" s="44" t="s">
+      <c r="U84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="V84" s="44"/>
+      <c r="V84" s="68"/>
     </row>
     <row r="85" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7149,10 +7168,10 @@
       <c r="N85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U85" s="45" t="s">
+      <c r="U85" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="V85" s="46">
+      <c r="V85" s="43">
         <f>N17</f>
         <v>276000000</v>
       </c>
@@ -7200,10 +7219,10 @@
       <c r="N86" s="1">
         <v>4200000000</v>
       </c>
-      <c r="U86" s="45" t="s">
+      <c r="U86" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="V86" s="46">
+      <c r="V86" s="43">
         <f>N56</f>
         <v>1367000000</v>
       </c>
@@ -7251,10 +7270,10 @@
       <c r="N87" s="10">
         <v>50475000000</v>
       </c>
-      <c r="U87" s="45" t="s">
+      <c r="U87" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="V87" s="46">
+      <c r="V87" s="43">
         <f>N61</f>
         <v>25224000000</v>
       </c>
@@ -7302,10 +7321,10 @@
       <c r="N88" s="1">
         <v>-31431000000</v>
       </c>
-      <c r="U88" s="47" t="s">
+      <c r="U88" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="V88" s="48">
+      <c r="V88" s="45">
         <f>V85/(V86+V87)</f>
         <v>1.0379451694182243E-2</v>
       </c>
@@ -7366,10 +7385,10 @@
         <f t="shared" si="9"/>
         <v>0.26954180209074774</v>
       </c>
-      <c r="U89" s="45" t="s">
+      <c r="U89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="V89" s="46">
+      <c r="V89" s="43">
         <f>N27</f>
         <v>5619000000</v>
       </c>
@@ -7417,10 +7436,10 @@
       <c r="N90" s="1">
         <v>-1312000000</v>
       </c>
-      <c r="U90" s="45" t="s">
+      <c r="U90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V90" s="46">
+      <c r="V90" s="43">
         <f>N25</f>
         <v>28819000000</v>
       </c>
@@ -7468,10 +7487,10 @@
       <c r="N91" s="1">
         <v>-9631000000</v>
       </c>
-      <c r="U91" s="47" t="s">
+      <c r="U91" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="V91" s="48">
+      <c r="V91" s="45">
         <f>V89/V90</f>
         <v>0.19497553697213643</v>
       </c>
@@ -7519,10 +7538,10 @@
       <c r="N92" s="1">
         <v>13158000000</v>
       </c>
-      <c r="U92" s="47" t="s">
+      <c r="U92" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="V92" s="48">
+      <c r="V92" s="45">
         <f>V88*(1-V91)</f>
         <v>8.3557125266327092E-3</v>
       </c>
@@ -7570,10 +7589,10 @@
       <c r="N93" s="1">
         <v>246000000</v>
       </c>
-      <c r="U93" s="44" t="s">
+      <c r="U93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="V93" s="44"/>
+      <c r="V93" s="68"/>
     </row>
     <row r="94" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7618,12 +7637,12 @@
       <c r="N94" s="10">
         <v>-28970000000</v>
       </c>
-      <c r="U94" s="45" t="s">
+      <c r="U94" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="V94" s="49">
+      <c r="V94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0910000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7669,12 +7688,12 @@
       <c r="N95" s="1">
         <v>-850000000</v>
       </c>
-      <c r="U95" s="45" t="s">
+      <c r="U95" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="V95" s="50" cm="1">
+      <c r="V95" s="47" cm="1">
         <f t="array" ref="V95">_FV(A1,"Beta")</f>
-        <v>1.2107000000000001</v>
+        <v>1.2322</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7720,10 +7739,10 @@
       <c r="N96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U96" s="45" t="s">
+      <c r="U96" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="V96" s="49">
+      <c r="V96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7770,12 +7789,12 @@
       <c r="N97" s="1">
         <v>-27956000000</v>
       </c>
-      <c r="U97" s="47" t="s">
+      <c r="U97" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="V97" s="48">
+      <c r="V97" s="45">
         <f>(V94)+((V95)*(V96-V94))</f>
-        <v>9.3456216000000009E-2</v>
+        <v>9.4005498000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -7821,10 +7840,10 @@
       <c r="N98" s="1">
         <v>0</v>
       </c>
-      <c r="U98" s="44" t="s">
+      <c r="U98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="V98" s="44"/>
+      <c r="V98" s="68"/>
     </row>
     <row r="99" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7869,10 +7888,10 @@
       <c r="N99" s="1">
         <v>6670000000</v>
       </c>
-      <c r="U99" s="45" t="s">
+      <c r="U99" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V99" s="46">
+      <c r="V99" s="43">
         <f>V86+V87</f>
         <v>26591000000</v>
       </c>
@@ -7920,12 +7939,12 @@
       <c r="N100" s="10">
         <v>-22136000000</v>
       </c>
-      <c r="U100" s="47" t="s">
+      <c r="U100" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="V100" s="48">
+      <c r="V100" s="45">
         <f>V99/V103</f>
-        <v>3.4078334467320427E-2</v>
+        <v>3.3692563561754159E-2</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -7971,12 +7990,12 @@
       <c r="N101" s="1">
         <v>-638000000</v>
       </c>
-      <c r="U101" s="45" t="s">
+      <c r="U101" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="V101" s="51" cm="1">
+      <c r="V101" s="48" cm="1">
         <f t="array" ref="V101">_FV(A1,"Market cap",TRUE)</f>
-        <v>753699481200</v>
+        <v>762633600000</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8022,12 +8041,12 @@
       <c r="N102" s="10">
         <v>-1269000000</v>
       </c>
-      <c r="U102" s="47" t="s">
+      <c r="U102" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="V102" s="48">
+      <c r="V102" s="45">
         <f>V101/V103</f>
-        <v>0.96592166553267955</v>
+        <v>0.96630743643824579</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="20" x14ac:dyDescent="0.25">
@@ -8073,12 +8092,12 @@
       <c r="N103" s="1">
         <v>16865000000</v>
       </c>
-      <c r="U103" s="47" t="s">
+      <c r="U103" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="V103" s="52">
+      <c r="V103" s="49">
         <f>V99+V101</f>
-        <v>780290481200</v>
+        <v>789224600000</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8124,10 +8143,10 @@
       <c r="N104" s="11">
         <v>15596000000</v>
       </c>
-      <c r="U104" s="44" t="s">
+      <c r="U104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="V104" s="44"/>
+      <c r="V104" s="68"/>
     </row>
     <row r="105" spans="1:22" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8208,12 +8227,12 @@
       <c r="T105" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="U105" s="53" t="s">
+      <c r="U105" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="V105" s="54">
+      <c r="V105" s="51">
         <f>(V100*V92)+(V102*V97)</f>
-        <v>9.0556132579297233E-2</v>
+        <v>9.1119737158887965E-2</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8222,51 +8241,51 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:N106" si="12">(C107/B107)-1</f>
         <v>1.3283950617283953</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.60021208907741253</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="12"/>
         <v>6.5862068965517242</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.26783216783216779</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.67567567567567566</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.91194865042791307</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.50494964276491339</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.12148944689126584</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.38107949736310953</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.11408636620780688</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="12"/>
         <v>0.65521327014218</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="12"/>
         <v>-0.51314040290418239</v>
       </c>
       <c r="O106" s="41">
@@ -8287,10 +8306,10 @@
       <c r="T106" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="U106" s="55" t="s">
+      <c r="U106" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="V106" s="56">
+      <c r="V106" s="53">
         <f>(SUM(O4:S4)/5)</f>
         <v>0.11017211412887766</v>
       </c>
@@ -8342,135 +8361,135 @@
       <c r="P107" s="29"/>
       <c r="Q107" s="29"/>
       <c r="R107" s="29"/>
-      <c r="S107" s="67">
+      <c r="S107" s="63">
         <f>S106*(1+V107)/(V108-V107)</f>
-        <v>1158243279652.8152</v>
+        <v>1148370414987.249</v>
       </c>
       <c r="T107" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="U107" s="57" t="s">
+      <c r="U107" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="V107" s="58">
+      <c r="V107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O108" s="67">
-        <f t="shared" ref="O108:Q108" si="12">O107+O106</f>
+      <c r="O108" s="63">
+        <f t="shared" ref="O108:Q108" si="13">O107+O106</f>
         <v>34353000000</v>
       </c>
-      <c r="P108" s="67">
-        <f t="shared" si="12"/>
+      <c r="P108" s="63">
+        <f t="shared" si="13"/>
         <v>39261000000</v>
       </c>
-      <c r="Q108" s="67">
-        <f t="shared" si="12"/>
+      <c r="Q108" s="63">
+        <f t="shared" si="13"/>
         <v>46995000000</v>
       </c>
-      <c r="R108" s="67">
+      <c r="R108" s="63">
         <f>R107+R106</f>
         <v>58422000000</v>
       </c>
-      <c r="S108" s="67">
+      <c r="S108" s="63">
         <f>S107+S106</f>
-        <v>1232321279652.8152</v>
+        <v>1222448414987.249</v>
       </c>
       <c r="T108" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="U108" s="59" t="s">
+      <c r="U108" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="V108" s="56">
+      <c r="V108" s="53">
         <f>V105</f>
-        <v>9.0556132579297233E-2</v>
+        <v>9.1119737158887965E-2</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="O109" s="60" t="s">
+      <c r="O109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="P109" s="60"/>
+      <c r="P109" s="65"/>
     </row>
     <row r="110" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O110" s="61" t="s">
+      <c r="O110" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="P110" s="51">
+      <c r="P110" s="48">
         <f>NPV(V108,O108,P108,Q108,R108,S108)</f>
-        <v>940932669057.3855</v>
+        <v>932295945872.66309</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O111" s="61" t="s">
+      <c r="O111" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="P111" s="51">
+      <c r="P111" s="48">
         <f>N40</f>
         <v>40738000000</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="20" x14ac:dyDescent="0.25">
-      <c r="O112" s="61" t="s">
+      <c r="O112" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="P112" s="51">
+      <c r="P112" s="48">
         <f>V99</f>
         <v>26591000000</v>
       </c>
     </row>
     <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O113" s="61" t="s">
+      <c r="O113" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="P113" s="51">
+      <c r="P113" s="48">
         <f>P110+P111-P112</f>
-        <v>955079669057.3855</v>
+        <v>946442945872.66309</v>
       </c>
     </row>
     <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O114" s="61" t="s">
+      <c r="O114" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="P114" s="61">
+      <c r="P114" s="57">
         <f>N34*(1+(5*T16))</f>
         <v>2464144553.2456627</v>
       </c>
     </row>
     <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O115" s="62" t="s">
+      <c r="O115" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="P115" s="63">
+      <c r="P115" s="59">
         <f>P113/P114</f>
-        <v>387.59076361790409</v>
+        <v>384.08580560992255</v>
       </c>
     </row>
     <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O116" s="61" t="s">
+      <c r="O116" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="P116" s="64" cm="1">
+      <c r="P116" s="60" cm="1">
         <f t="array" ref="P116">_FV(A1,"Price",TRUE)</f>
-        <v>294.10000000000002</v>
+        <v>296.38</v>
       </c>
     </row>
     <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O117" s="62" t="s">
+      <c r="O117" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="P117" s="65">
+      <c r="P117" s="61">
         <f>P115/P116-1</f>
-        <v>0.31788766956104753</v>
+        <v>0.29592349554599684</v>
       </c>
     </row>
     <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.25">
-      <c r="O118" s="62" t="s">
+      <c r="O118" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="P118" s="66" t="str">
+      <c r="P118" s="62" t="str">
         <f>IF(P115&gt;P116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
